--- a/Databases/日本語_words.xlsx
+++ b/Databases/日本語_words.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Me\Documents\GitHub Clones\anki-card-importer\Databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF736AA-4C17-4672-8DDC-AB31DC1A5D72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD29E9DA-F39E-4E25-AD99-D2E840DE8D11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16530" yWindow="7650" windowWidth="18570" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17115" yWindow="4290" windowWidth="12585" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="words" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>FOREIGN</t>
   </si>
@@ -29,6 +29,58 @@
   </si>
   <si>
     <t>DATE</t>
+  </si>
+  <si>
+    <t>KANJI</t>
+  </si>
+  <si>
+    <t>ねむい</t>
+  </si>
+  <si>
+    <t>よるおそく</t>
+  </si>
+  <si>
+    <t>のです</t>
+  </si>
+  <si>
+    <t>いれる</t>
+  </si>
+  <si>
+    <t>きがきく</t>
+  </si>
+  <si>
+    <t>1.) adj. sleepy, drowsy, somnolent</t>
+  </si>
+  <si>
+    <t>1.) adj. to be late at night; at a late hour</t>
+  </si>
+  <si>
+    <t>1.) exp. the expectation is that ...; the reason is that ...; the fact is that ...; the explanation is that ...; it is that ...​の and ん add emphasis (のだ、んです、んだ)</t>
+  </si>
+  <si>
+    <t>1.) v. to make (tea, coffee, etc.)​</t>
+  </si>
+  <si>
+    <t>1.) to be sensible; to be smart; to be tasteful​
+2.) to be thoughtful; to be tactful; to be sensitive</t>
+  </si>
+  <si>
+    <t>2020-11-26</t>
+  </si>
+  <si>
+    <t>眠い</t>
+  </si>
+  <si>
+    <t>夜遅く</t>
+  </si>
+  <si>
+    <t>NO KANJI</t>
+  </si>
+  <si>
+    <t>入れる</t>
+  </si>
+  <si>
+    <t>気が利く</t>
   </si>
 </sst>
 </file>
@@ -430,20 +482,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -452,6 +502,79 @@
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
